--- a/results/mp/logistic/corona/confidence/42/stop-words-desired-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-desired-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,49 +43,61 @@
     <t>war</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>thank</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>great</t>
@@ -97,58 +109,55 @@
     <t>good</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>safety</t>
   </si>
   <si>
     <t>increase</t>
@@ -517,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -628,38 +637,38 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8648648648648649</v>
+        <v>0.8561643835616438</v>
       </c>
       <c r="C4">
+        <v>250</v>
+      </c>
+      <c r="D4">
+        <v>250</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="L4">
         <v>32</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>32</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4">
-        <v>0.9666666666666667</v>
-      </c>
-      <c r="L4">
-        <v>116</v>
-      </c>
-      <c r="M4">
-        <v>116</v>
-      </c>
       <c r="N4">
         <v>1</v>
       </c>
@@ -670,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8529411764705882</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -696,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -720,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8527397260273972</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C6">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K6">
         <v>0.9322033898305084</v>
@@ -778,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.582010582010582</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C7">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D7">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.9302325581395349</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -828,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4573643410852713</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C8">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -846,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>280</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.9190600522193212</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L8">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M8">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -870,21 +879,45 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.4806201550387597</v>
+      </c>
+      <c r="C9">
+        <v>248</v>
+      </c>
+      <c r="D9">
+        <v>248</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>268</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.9166666666666666</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -896,73 +929,121 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K10">
+        <v>0.90625</v>
+      </c>
+      <c r="L10">
+        <v>116</v>
+      </c>
+      <c r="M10">
+        <v>116</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.2013422818791946</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>119</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
         <v>0.9014084507042254</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>128</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>128</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="J11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11">
-        <v>0.8984375</v>
-      </c>
-      <c r="L11">
-        <v>115</v>
-      </c>
-      <c r="M11">
-        <v>115</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K12">
-        <v>0.8928571428571429</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -974,21 +1055,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.8773584905660378</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L13">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1000,21 +1081,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.86875</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L14">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="M14">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1026,21 +1107,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.8620689655172413</v>
+        <v>0.88125</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="M15">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1052,21 +1133,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.8611111111111112</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1078,21 +1159,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.8536585365853658</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1104,21 +1185,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.851063829787234</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1130,21 +1211,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.8125</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1156,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.8095238095238095</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L20">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1182,21 +1263,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.8</v>
+        <v>0.775</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1208,12 +1289,12 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K22">
         <v>0.7714285714285715</v>
@@ -1239,16 +1320,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.7617647058823529</v>
       </c>
       <c r="L23">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M23">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1260,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.735593220338983</v>
+        <v>0.76</v>
       </c>
       <c r="L24">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1286,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.7238493723849372</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L25">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="M25">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1312,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.723404255319149</v>
+        <v>0.7322175732217573</v>
       </c>
       <c r="L26">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="M26">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1338,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.7</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1364,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.6571428571428571</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L28">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M28">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1390,21 +1471,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.651685393258427</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L29">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M29">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1416,21 +1497,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.6461538461538462</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1442,21 +1523,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.5616438356164384</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1468,21 +1549,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.5490196078431373</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1494,33 +1575,33 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33">
+        <v>0.4230769230769231</v>
+      </c>
+      <c r="L33">
+        <v>33</v>
+      </c>
+      <c r="M33">
+        <v>33</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>45</v>
-      </c>
-      <c r="K33">
-        <v>0.3717948717948718</v>
-      </c>
-      <c r="L33">
-        <v>29</v>
-      </c>
-      <c r="M33">
-        <v>29</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
